--- a/Current-conversion-formula-ACS712.xlsx
+++ b/Current-conversion-formula-ACS712.xlsx
@@ -8,29 +8,43 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2m0l1s-my.sharepoint.com/personal/baruaeee_2m0l1s_onmicrosoft_com/Documents/GitRepo/Arduino-Hall-effect-sensor-Proteus-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B10A4E63-5A81-492F-A4BE-2FB658DC5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB83016-0B53-4043-89D1-A866D3EE4684}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{B10A4E63-5A81-492F-A4BE-2FB658DC5E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0EDC5F9-0850-4AC9-85CB-5FF0D30A6F27}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-3960" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Volts</t>
+    <t>adj</t>
   </si>
   <si>
-    <t>Curr.</t>
+    <t>rng</t>
+  </si>
+  <si>
+    <t>m=</t>
   </si>
 </sst>
 </file>
@@ -100,39 +114,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Y-curr||X-Volts</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.56534074614475105"/>
-          <c:y val="0.92108629999233993"/>
-        </c:manualLayout>
-      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -164,19 +145,9 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.5780902786512703E-2"/>
-          <c:y val="7.6205229838317581E-2"/>
-          <c:w val="0.88232346356066516"/>
-          <c:h val="0.79201985976040723"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -187,7 +158,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Volts</c:v>
+                  <c:v>adj</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -216,84 +187,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.8338658146964896E-2"/>
-                  <c:y val="-5.1020408163265307E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-5C3C-431E-BAAA-F2A2E64A51B2}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
@@ -301,13 +194,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>27.08</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>8.3333333300000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -322,18 +215,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5C3C-431E-BAAA-F2A2E64A51B2}"/>
+              <c16:uniqueId val="{00000000-D84F-4A26-9F6D-DBE6225ECCB7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,11 +238,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="685002896"/>
-        <c:axId val="685005776"/>
+        <c:axId val="2045145775"/>
+        <c:axId val="2045142415"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="685002896"/>
+        <c:axId val="2045145775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -406,13 +299,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685005776"/>
+        <c:crossAx val="2045142415"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="685005776"/>
+        <c:axId val="2045142415"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -469,7 +361,331 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="685002896"/>
+        <c:crossAx val="2045145775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>27.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3333333300000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-33AF-498C-A08B-B5DDEA8F4D9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1959351087"/>
+        <c:axId val="1959351567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1959351087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959351567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1959351567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1959351087"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -565,7 +781,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1086,22 +1858,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>376858</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45554</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9389F392-E81D-9C98-FBA6-DD5729D17E20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F672BD75-041D-C684-CCCC-DC2F8E666AAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1891,47 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>376858</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>144117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45554</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>29817</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44ED21F0-B23A-C7D5-E584-341916B957BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1385,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1403,7 +2215,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2.5</v>
+        <v>27.08</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1411,18 +2223,35 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3.5</v>
+        <v>25</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4.5</v>
+        <v>8.3333333300000003</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>15.746</v>
+      </c>
+      <c r="B5">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <f>-0.8/17</f>
+        <v>-4.7058823529411764E-2</v>
       </c>
     </row>
   </sheetData>
